--- a/media/upload/16_2019-05-06_进销存格式.xlsx
+++ b/media/upload/16_2019-05-06_进销存格式.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenwenlei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenwenlei/PycharmProjects/hxproj/media/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="初期库存导入" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>商家代码</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>商家名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,6 +499,197 @@
     <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED65NU7700U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机型</t>
+    <rPh sb="0" eb="1">
+      <t>ji xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天等县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>tian deng xain</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武鸣县县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>wu ming x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆安县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>long an</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田林县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>tian lin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邕宁县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>yong ning</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南丹县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>nan dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河池市万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>he chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜州市万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>yi zhou s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融水县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>rong shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融安县万达电器批发部</t>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴安县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>xin gan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>da xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙州县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>long zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁明县万达电器批发部</t>
+    <rPh sb="0" eb="1">
+      <t>ning ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A5722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A5721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZ65A5723</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +701,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +758,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -631,11 +836,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -676,9 +893,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_武汉日发货明细表及日毛利测算5月" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -977,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -991,16 +1212,16 @@
         <v>2060078</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1008,16 +1229,16 @@
         <v>2060070</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1025,16 +1246,16 @@
         <v>2060079</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1042,16 +1263,16 @@
         <v>2060012</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1059,16 +1280,16 @@
         <v>123123</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>1111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1076,16 +1297,16 @@
         <v>20128398</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1093,16 +1314,16 @@
         <v>2317889</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="11">
         <v>11111</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1110,10 +1331,10 @@
         <v>206078</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11">
         <v>22</v>
@@ -1124,16 +1345,16 @@
         <v>2070</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="11">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1141,16 +1362,16 @@
         <v>20679</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11">
         <v>2132</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1158,16 +1379,16 @@
         <v>206002</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1175,16 +1396,16 @@
         <v>123</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="11">
         <v>2211</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1192,16 +1413,16 @@
         <v>201288</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="11">
         <v>76123</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1209,10 +1430,10 @@
         <v>32492348</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="11">
         <v>123445</v>
@@ -1223,16 +1444,16 @@
         <v>281334</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="11">
         <v>98127</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1467,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1266,25 +1487,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1292,16 +1513,16 @@
         <v>20021358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8">
         <v>43564</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -1313,7 +1534,7 @@
         <v>42495.75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1321,16 +1542,16 @@
         <v>134234987</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8">
         <v>43564</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -1342,7 +1563,7 @@
         <v>42495.75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1350,16 +1571,16 @@
         <v>1234512</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="8">
         <v>43564</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -1371,7 +1592,7 @@
         <v>42495.75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1379,16 +1600,16 @@
         <v>97263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8">
         <v>43564</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
@@ -1400,7 +1621,7 @@
         <v>42495.75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1408,16 +1629,16 @@
         <v>74123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="8">
         <v>43564</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -1429,7 +1650,7 @@
         <v>42495.75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1437,16 +1658,16 @@
         <v>4231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8">
         <v>43564</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1458,7 +1679,7 @@
         <v>42495.75</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1466,16 +1687,16 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8">
         <v>43564</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -1487,7 +1708,7 @@
         <v>42495.75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1495,16 +1716,16 @@
         <v>4399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8">
         <v>43564</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1516,7 +1737,7 @@
         <v>42495.75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1524,16 +1745,16 @@
         <v>12341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8">
         <v>43564</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
@@ -1545,7 +1766,7 @@
         <v>42495.75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1553,16 +1774,16 @@
         <v>372394</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8">
         <v>43564</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -1574,7 +1795,7 @@
         <v>42495.75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1582,16 +1803,16 @@
         <v>1231234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8">
         <v>43564</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -1603,7 +1824,7 @@
         <v>42495.75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1611,16 +1832,16 @@
         <v>4524234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="8">
         <v>43564</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>107347034</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1632,7 +1853,7 @@
         <v>42495.75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1640,16 +1861,16 @@
         <v>200698055</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="8">
         <v>43564</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -1661,7 +1882,7 @@
         <v>42495.75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1669,16 +1890,16 @@
         <v>31231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="8">
         <v>43564</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1690,7 +1911,7 @@
         <v>42495.75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1698,16 +1919,16 @@
         <v>44223</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8">
         <v>43564</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -1719,7 +1940,7 @@
         <v>42495.75</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1730,63 +1951,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="7"/>
     </row>
@@ -1795,16 +2018,16 @@
         <v>2060078</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10">
         <v>206007801</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="13">
         <v>43566</v>
@@ -1834,229 +2057,666 @@
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="1">
+        <v>134234987</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1273897</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="1">
+        <v>1234512</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12738971</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="1">
+        <v>97263</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21234123</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="1">
+        <v>74123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43235</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="1">
+        <v>4231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12312</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41241</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="1">
+        <v>4399</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5235</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="1">
+        <v>12341</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="1">
+        <v>372394</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1">
+        <v>656</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="1">
+        <v>1231234</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="1">
+        <v>4524234</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>645</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="1">
+        <v>200698055</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="1">
+        <v>31231</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1">
+        <v>47</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4352</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43566</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="10">
+        <v>17997</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
